--- a/biology/Botanique/Rosa_'Laxa'/Rosa_'Laxa'.xlsx
+++ b/biology/Botanique/Rosa_'Laxa'/Rosa_'Laxa'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_%27Laxa%27</t>
+          <t>Rosa_'Laxa'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Rosa 'Laxa' est un cultivar de rosiers, appartenant à la section des Caninae, originaire de Russie. C'est le Suisse Otto Fröbel qui l'a commercialisé en 1889.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosa_%27Laxa%27</t>
+          <t>Rosa_'Laxa'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau formant un buisson de 1 à 2 mètres de haut, aux tiges inermes, à l'enracinement profond, qui n'émet ni drageons ni sauvageons[1]. Il donne des sujets trapus, bien ramifiés. En cas de manque de chaux et de potasse, il est très sensible à la maladie des taches noires.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau formant un buisson de 1 à 2 mètres de haut, aux tiges inermes, à l'enracinement profond, qui n'émet ni drageons ni sauvageons. Il donne des sujets trapus, bien ramifiés. En cas de manque de chaux et de potasse, il est très sensible à la maladie des taches noires.
 Le cultivar Rosa 'Laxa' ne doit pas être confondu avec l'espèce Rosa laxa Retz.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosa_%27Laxa%27</t>
+          <t>Rosa_'Laxa'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa dumetorum 'laxa'
 Rosa laxa Hort. non Retz.
